--- a/excel/qianke_compete.xlsx
+++ b/excel/qianke_compete.xlsx
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比亚迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奇瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>艾瑞泽7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长安CS55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +147,18 @@
   </si>
   <si>
     <t>客户参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安逸动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大众速腾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeep自由侠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,11 +288,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,12 +299,17 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,12 +317,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -335,6 +331,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>803951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971551" y="228601"/>
+          <a:ext cx="1047749" cy="746800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104898</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="1076326"/>
+          <a:ext cx="1047748" cy="523874"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104901</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>678349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971551" y="1697358"/>
+          <a:ext cx="1047750" cy="628816"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="2426494"/>
+          <a:ext cx="1057275" cy="792956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>773567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971551" y="3324227"/>
+          <a:ext cx="1047749" cy="725940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1098080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>638175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="4152900"/>
+          <a:ext cx="1031405" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,13 +891,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
@@ -647,188 +913,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -839,6 +1105,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/qianke_compete.xlsx
+++ b/excel/qianke_compete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="潜客竞争信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,7 +102,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E5</t>
+    <t>客户参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝骏510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8L手挡档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艾瑞泽7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6豪华版</t>
+    <t>丰田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015款 2.0G领先版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,7 +138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>质量一般</t>
+    <t>操控性差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,7 +150,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5T手动炫目型</t>
+    <t>1.5T手动炫色型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -146,19 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户参考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安逸动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大众速腾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jeep自由侠</t>
+    <t>凯美瑞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,19 +474,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>54769</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:colOff>1099966</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>847725</xdr:rowOff>
+      <xdr:rowOff>819150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -501,8 +505,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962025" y="2426494"/>
-          <a:ext cx="1057275" cy="792956"/>
+          <a:off x="981075" y="2419351"/>
+          <a:ext cx="1033291" cy="771524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,19 +518,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47627</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:colOff>1093466</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>773567</xdr:rowOff>
+      <xdr:rowOff>704849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -545,8 +549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="971551" y="3324227"/>
-          <a:ext cx="1047749" cy="725940"/>
+          <a:off x="971549" y="3295650"/>
+          <a:ext cx="1036317" cy="647699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -558,19 +562,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1098080</xdr:colOff>
+      <xdr:colOff>1104900</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
+      <xdr:rowOff>674882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -589,8 +593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="4152900"/>
-          <a:ext cx="1031405" cy="581025"/>
+          <a:off x="971550" y="4038601"/>
+          <a:ext cx="1047750" cy="627256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,7 +896,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,7 +905,7 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
@@ -917,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -1030,71 +1034,71 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
